--- a/意向总结/result_zhoubao/拜访次数统计8月.xlsx
+++ b/意向总结/result_zhoubao/拜访次数统计8月.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,7 +444,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>徐明月</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/徐明月</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -386,7 +454,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>李想</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/李想</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -396,7 +464,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>李治超</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/李治超</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -406,7 +474,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>杨照</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/杨照</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -416,7 +484,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>梁小东</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/梁小东</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -426,7 +494,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>武思慧</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/武思慧</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -436,7 +504,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>武真羽</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/武真羽</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -446,7 +514,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>段玉晶</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/段玉晶</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -456,7 +524,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>王兴龙</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/王兴龙</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -466,7 +534,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>田德林</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/田德林</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -476,7 +544,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>董斌</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/董斌</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -486,7 +554,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>贾宇鑫</t>
+          <t>/mnt/e/Workspace/Tool/意向总结/data_zhoubao/202008/贾宇鑫</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -494,6 +562,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>